--- a/Reports/MarketBeatRank/2019/T_INV19_BASE/AVGO.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_BASE/AVGO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11023" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24370" uniqueCount="85">
   <si>
     <t>Mar_17</t>
   </si>
@@ -215,6 +215,66 @@
   </si>
   <si>
     <t>Jun_09</t>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>6/10/2019,Lowers Target,Overweight -&gt; Equal Weight,$266.00 -&gt; $262.00</t>
+  </si>
+  <si>
+    <t>6/14/2019,Lowers Target,Overweight,$350.00 -&gt; $310.00</t>
+  </si>
+  <si>
+    <t>6/14/2019,Lowers Target,Buy,$370.00 -&gt; $324.00</t>
+  </si>
+  <si>
+    <t>6/14/2019,Lowers Target,Overweight,$365.00 -&gt; $350.00</t>
+  </si>
+  <si>
+    <t>6/14/2019,Lowers Target,Buy,$320.00 -&gt; $300.00</t>
+  </si>
+  <si>
+    <t>6/14/2019,Lowers Target,Overweight,$360.00 -&gt; $315.00</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>6/29/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>7/16/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>7/23/2019,Initiates,Outperform -&gt; Outperform,$320.00</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>8/3/2019,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>8/9/2019,Raises Target,Overweight,$310.00 -&gt; $330.00</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
@@ -231,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +368,56 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -321,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="547">
+  <cellXfs count="835">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -812,6 +922,294 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1210,65 +1608,101 @@
     <col min="17" max="17" customWidth="true" width="56.1640625" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="56.1640625" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="56.1640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="56.1640625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="56.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="56.1640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1333,6 +1767,33 @@
       <c r="T2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1395,6 +1856,33 @@
       <c r="T3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1457,6 +1945,33 @@
       <c r="T4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1519,6 +2034,33 @@
       <c r="T5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1581,6 +2123,33 @@
       <c r="T6" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1610,8 +2179,8 @@
       <c r="I7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>2</v>
+      <c r="J7" s="552" t="s">
+        <v>66</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>2</v>
@@ -1641,6 +2210,33 @@
         <v>2</v>
       </c>
       <c r="T7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1651,8 +2247,8 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>2</v>
+      <c r="C8" s="777" t="s">
+        <v>83</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>2</v>
@@ -1672,37 +2268,64 @@
       <c r="I8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="271" t="s">
+      <c r="J8" s="553" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="T8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="0" t="s">
+      <c r="Z8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1762,9 +2385,36 @@
         <v>2</v>
       </c>
       <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="AC9" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1829,6 +2479,33 @@
       <c r="T10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1846,49 +2523,76 @@
       <c r="E11" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="364" t="s">
+      <c r="F11" s="684" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="364" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="214" t="s">
+      <c r="Q11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="0" t="s">
+      <c r="V11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1953,6 +2657,33 @@
       <c r="T12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1982,8 +2713,8 @@
       <c r="I13" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>2</v>
+      <c r="J13" s="558" t="s">
+        <v>68</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>2</v>
@@ -2013,6 +2744,33 @@
         <v>2</v>
       </c>
       <c r="T13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2077,6 +2835,33 @@
       <c r="T14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2139,6 +2924,33 @@
       <c r="T15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2201,6 +3013,33 @@
       <c r="T16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2230,8 +3069,8 @@
       <c r="I17" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>2</v>
+      <c r="J17" s="562" t="s">
+        <v>69</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>2</v>
@@ -2257,10 +3096,37 @@
       <c r="R17" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="AC17" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2278,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>2</v>
@@ -2323,6 +3189,33 @@
         <v>2</v>
       </c>
       <c r="T18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2354,8 +3247,8 @@
       <c r="I19" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>2</v>
+      <c r="J19" s="564" t="s">
+        <v>70</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>2</v>
@@ -2385,6 +3278,33 @@
         <v>2</v>
       </c>
       <c r="T19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2449,6 +3369,33 @@
       <c r="T20" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2509,6 +3456,33 @@
         <v>2</v>
       </c>
       <c r="T21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2522,8 +3496,8 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>2</v>
+      <c r="D22" s="759" t="s">
+        <v>81</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>2</v>
@@ -2534,43 +3508,70 @@
       <c r="G22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>2</v>
+      <c r="H22" s="631" t="s">
+        <v>74</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="285" t="s">
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="285" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="255" t="s">
+      <c r="T22" s="255" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R22" s="49" t="s">
+      <c r="U22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="T22" s="0" t="s">
+      <c r="AB22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2635,6 +3636,33 @@
       <c r="T23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2697,6 +3725,33 @@
       <c r="T24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2759,6 +3814,33 @@
       <c r="T25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2821,6 +3903,33 @@
       <c r="T26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2850,8 +3959,8 @@
       <c r="I27" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>2</v>
+      <c r="J27" s="572" t="s">
+        <v>71</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>2</v>
@@ -2881,6 +3990,33 @@
         <v>2</v>
       </c>
       <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2945,6 +4081,33 @@
       <c r="T28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -3007,6 +4170,33 @@
       <c r="T29" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="U29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -3057,6 +4247,33 @@
       <c r="P30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3107,6 +4324,33 @@
       <c r="P31" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3130,6 +4374,33 @@
       <c r="G32" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3151,6 +4422,33 @@
         <v>2</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
